--- a/medicine/Mort/Terrorisme_en_1977/Terrorisme_en_1977.xlsx
+++ b/medicine/Mort/Terrorisme_en_1977/Terrorisme_en_1977.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,18 +520,159 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-8 janvier, Union soviétique : une bombe explose dans le métro de Moscou entre les stations « Izmaïlovskaïa » et « Pervomaïskaïa », faisant sept morts et trente-sept blessés[réf. souhaitée]. Trois hommes seront condamnés à mort et exécutés pour cet attentat, dont les circonstances demeurent floues[réf. nécessaire].
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8 janvier, Union soviétique : une bombe explose dans le métro de Moscou entre les stations « Izmaïlovskaïa » et « Pervomaïskaïa », faisant sept morts et trente-sept blessés[réf. souhaitée]. Trois hommes seront condamnés à mort et exécutés pour cet attentat, dont les circonstances demeurent floues[réf. nécessaire].
 8 janvier, Union soviétique : une seconde bombe explose dans une épicerie de la rue Dzerjinski, toujours à Moscou[réf. souhaitée].
-8 janvier, Union soviétique : une troisième bombe explose dans la rue du 25-octobre, encore à Moscou[réf. souhaitée].
-Juillet
-8 juillet, France : tentative d'assassinat de Marcel Boiteux, président d'EDF, par des militants anti-nucléaires
-Septembre
-5 septembre, Allemagne de l'Ouest : l'enlèvement de Hanns Martin Schleyer, président du patronat d'Allemagne de l'Ouest, fait quatre morts : son chauffeur, son garde du corps et deux policiers, tués pendant l'enlèvement.
-Octobre
-19 octobre, France : le corps de Hanns Martin Schleyer est retrouvé dans le coffre d'une voiture dans la banlieue de Mulhouse[1]. Un communiqué, signé « Commando Siegfried Hausner », émanation de la Fraction armée rouge, est envoyé au journal Libération, revendiquant l'assassinat de l'homme d'affaires allemand[1].
-Novembre
-19 novembre, France : attentats à la bombe contre des bâtiments ou des sites en lien avec l’énergie nucléaire (usines de Creusot-Loire et de CGE, locaux et installations d’EDF, etc.) par des militants d’extrême-gauche agissant sous la dénomination de CARLOS[2].</t>
+8 janvier, Union soviétique : une troisième bombe explose dans la rue du 25-octobre, encore à Moscou[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1977</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>8 juillet, France : tentative d'assassinat de Marcel Boiteux, président d'EDF, par des militants anti-nucléaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1977</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 septembre, Allemagne de l'Ouest : l'enlèvement de Hanns Martin Schleyer, président du patronat d'Allemagne de l'Ouest, fait quatre morts : son chauffeur, son garde du corps et deux policiers, tués pendant l'enlèvement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1977</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 octobre, France : le corps de Hanns Martin Schleyer est retrouvé dans le coffre d'une voiture dans la banlieue de Mulhouse. Un communiqué, signé « Commando Siegfried Hausner », émanation de la Fraction armée rouge, est envoyé au journal Libération, revendiquant l'assassinat de l'homme d'affaires allemand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1977</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1977</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>19 novembre, France : attentats à la bombe contre des bâtiments ou des sites en lien avec l’énergie nucléaire (usines de Creusot-Loire et de CGE, locaux et installations d’EDF, etc.) par des militants d’extrême-gauche agissant sous la dénomination de CARLOS.</t>
         </is>
       </c>
     </row>
